--- a/Employee_Reports29/Mohammed Fahim Mohammed Laffir Q0576.xlsx
+++ b/Employee_Reports29/Mohammed Fahim Mohammed Laffir Q0576.xlsx
@@ -18,13 +18,17 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
+      <sz val="14"/>
     </font>
     <font>
       <b val="1"/>
@@ -74,7 +78,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -459,7 +463,7 @@
     <col width="4" customWidth="1" min="1" max="1"/>
     <col width="59" customWidth="1" min="2" max="2"/>
     <col width="19" customWidth="1" min="3" max="3"/>
-    <col width="17" customWidth="1" min="4" max="4"/>
+    <col width="18" customWidth="1" min="4" max="4"/>
     <col width="18" customWidth="1" min="5" max="5"/>
     <col width="15" customWidth="1" min="6" max="6"/>
     <col width="13" customWidth="1" min="7" max="7"/>
@@ -568,11 +572,11 @@
         </is>
       </c>
       <c r="H3" s="3" t="n">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="I3" s="3" t="inlineStr">
         <is>
-          <t>16-Sep-2025</t>
+          <t>17-Sep-2025</t>
         </is>
       </c>
       <c r="J3" s="3" t="inlineStr">
@@ -617,11 +621,11 @@
         </is>
       </c>
       <c r="H4" s="3" t="n">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="I4" s="3" t="inlineStr">
         <is>
-          <t>16-Sep-2025</t>
+          <t>17-Sep-2025</t>
         </is>
       </c>
       <c r="J4" s="3" t="inlineStr">
@@ -666,11 +670,11 @@
         </is>
       </c>
       <c r="H5" s="3" t="n">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="I5" s="3" t="inlineStr">
         <is>
-          <t>16-Sep-2025</t>
+          <t>17-Sep-2025</t>
         </is>
       </c>
       <c r="J5" s="3" t="inlineStr">
@@ -715,11 +719,11 @@
         </is>
       </c>
       <c r="H6" s="3" t="n">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="I6" s="3" t="inlineStr">
         <is>
-          <t>16-Sep-2025</t>
+          <t>17-Sep-2025</t>
         </is>
       </c>
       <c r="J6" s="3" t="inlineStr">
@@ -764,11 +768,11 @@
         </is>
       </c>
       <c r="H7" s="3" t="n">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="I7" s="3" t="inlineStr">
         <is>
-          <t>16-Sep-2025</t>
+          <t>17-Sep-2025</t>
         </is>
       </c>
       <c r="J7" s="3" t="inlineStr">
@@ -813,11 +817,11 @@
         </is>
       </c>
       <c r="H8" s="3" t="n">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="I8" s="3" t="inlineStr">
         <is>
-          <t>16-Sep-2025</t>
+          <t>17-Sep-2025</t>
         </is>
       </c>
       <c r="J8" s="3" t="inlineStr">
@@ -862,11 +866,11 @@
         </is>
       </c>
       <c r="H9" s="3" t="n">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="I9" s="3" t="inlineStr">
         <is>
-          <t>16-Sep-2025</t>
+          <t>17-Sep-2025</t>
         </is>
       </c>
       <c r="J9" s="3" t="inlineStr">
@@ -911,11 +915,11 @@
         </is>
       </c>
       <c r="H10" s="3" t="n">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I10" s="3" t="inlineStr">
         <is>
-          <t>16-Sep-2025</t>
+          <t>17-Sep-2025</t>
         </is>
       </c>
       <c r="J10" s="3" t="inlineStr">
@@ -960,11 +964,11 @@
         </is>
       </c>
       <c r="H11" s="3" t="n">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="I11" s="3" t="inlineStr">
         <is>
-          <t>16-Sep-2025</t>
+          <t>17-Sep-2025</t>
         </is>
       </c>
       <c r="J11" s="3" t="inlineStr">
@@ -1009,11 +1013,11 @@
         </is>
       </c>
       <c r="H12" s="3" t="n">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="I12" s="3" t="inlineStr">
         <is>
-          <t>16-Sep-2025</t>
+          <t>17-Sep-2025</t>
         </is>
       </c>
       <c r="J12" s="3" t="inlineStr">
@@ -1058,11 +1062,11 @@
         </is>
       </c>
       <c r="H13" s="3" t="n">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="I13" s="3" t="inlineStr">
         <is>
-          <t>16-Sep-2025</t>
+          <t>17-Sep-2025</t>
         </is>
       </c>
       <c r="J13" s="3" t="inlineStr">
@@ -1107,11 +1111,11 @@
         </is>
       </c>
       <c r="H14" s="3" t="n">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="I14" s="3" t="inlineStr">
         <is>
-          <t>16-Sep-2025</t>
+          <t>17-Sep-2025</t>
         </is>
       </c>
       <c r="J14" s="3" t="inlineStr">
@@ -1156,11 +1160,11 @@
         </is>
       </c>
       <c r="H15" s="3" t="n">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="I15" s="3" t="inlineStr">
         <is>
-          <t>16-Sep-2025</t>
+          <t>17-Sep-2025</t>
         </is>
       </c>
       <c r="J15" s="3" t="inlineStr">
@@ -1205,11 +1209,11 @@
         </is>
       </c>
       <c r="H16" s="3" t="n">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="I16" s="3" t="inlineStr">
         <is>
-          <t>16-Sep-2025</t>
+          <t>17-Sep-2025</t>
         </is>
       </c>
       <c r="J16" s="3" t="inlineStr">
@@ -1254,11 +1258,11 @@
         </is>
       </c>
       <c r="H17" s="3" t="n">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="I17" s="3" t="inlineStr">
         <is>
-          <t>16-Sep-2025</t>
+          <t>17-Sep-2025</t>
         </is>
       </c>
       <c r="J17" s="3" t="inlineStr">
@@ -1303,11 +1307,11 @@
         </is>
       </c>
       <c r="H18" s="3" t="n">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="I18" s="3" t="inlineStr">
         <is>
-          <t>16-Sep-2025</t>
+          <t>17-Sep-2025</t>
         </is>
       </c>
       <c r="J18" s="3" t="inlineStr">
@@ -1352,11 +1356,11 @@
         </is>
       </c>
       <c r="H19" s="3" t="n">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="I19" s="3" t="inlineStr">
         <is>
-          <t>16-Sep-2025</t>
+          <t>17-Sep-2025</t>
         </is>
       </c>
       <c r="J19" s="3" t="inlineStr">
@@ -1380,8 +1384,10 @@
           <t>ELECTRICAL SAFETY</t>
         </is>
       </c>
-      <c r="D20" s="4" t="n">
-        <v/>
+      <c r="D20" s="4" t="inlineStr">
+        <is>
+          <t>LSME-OHS-SOP-021</t>
+        </is>
       </c>
       <c r="E20" s="4" t="inlineStr">
         <is>
@@ -1399,11 +1405,11 @@
         </is>
       </c>
       <c r="H20" s="4" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I20" s="4" t="inlineStr">
         <is>
-          <t>16-Sep-2025</t>
+          <t>17-Sep-2025</t>
         </is>
       </c>
       <c r="J20" s="4" t="inlineStr">
@@ -1428,8 +1434,10 @@
           <t>CARGO</t>
         </is>
       </c>
-      <c r="D21" s="4" t="n">
-        <v/>
+      <c r="D21" s="4" t="inlineStr">
+        <is>
+          <t>LSME-CRG-SOP-031</t>
+        </is>
       </c>
       <c r="E21" s="4" t="inlineStr">
         <is>
@@ -1447,11 +1455,11 @@
         </is>
       </c>
       <c r="H21" s="4" t="n">
-        <v>-103</v>
+        <v>-104</v>
       </c>
       <c r="I21" s="4" t="inlineStr">
         <is>
-          <t>16-Sep-2025</t>
+          <t>17-Sep-2025</t>
         </is>
       </c>
       <c r="J21" s="4" t="inlineStr">
@@ -1475,8 +1483,10 @@
           <t>CARGO</t>
         </is>
       </c>
-      <c r="D22" s="4" t="n">
-        <v/>
+      <c r="D22" s="4" t="inlineStr">
+        <is>
+          <t>LSME-CRG-SOP-028</t>
+        </is>
       </c>
       <c r="E22" s="4" t="inlineStr">
         <is>
@@ -1494,11 +1504,11 @@
         </is>
       </c>
       <c r="H22" s="4" t="n">
-        <v>-126</v>
+        <v>-127</v>
       </c>
       <c r="I22" s="4" t="inlineStr">
         <is>
-          <t>16-Sep-2025</t>
+          <t>17-Sep-2025</t>
         </is>
       </c>
       <c r="J22" s="4" t="inlineStr">
@@ -1522,8 +1532,10 @@
           <t>CARGO</t>
         </is>
       </c>
-      <c r="D23" s="4" t="n">
-        <v/>
+      <c r="D23" s="4" t="inlineStr">
+        <is>
+          <t>LSME-CRG-SOP-035</t>
+        </is>
       </c>
       <c r="E23" s="4" t="inlineStr">
         <is>
@@ -1541,11 +1553,11 @@
         </is>
       </c>
       <c r="H23" s="4" t="n">
-        <v>-41</v>
+        <v>-42</v>
       </c>
       <c r="I23" s="4" t="inlineStr">
         <is>
-          <t>16-Sep-2025</t>
+          <t>17-Sep-2025</t>
         </is>
       </c>
       <c r="J23" s="4" t="inlineStr">
@@ -1578,11 +1590,11 @@
         </is>
       </c>
       <c r="H24" s="4" t="n">
-        <v>-41</v>
+        <v>-42</v>
       </c>
       <c r="I24" s="4" t="inlineStr">
         <is>
-          <t>16-Sep-2025</t>
+          <t>17-Sep-2025</t>
         </is>
       </c>
       <c r="J24" s="4" t="inlineStr">
@@ -1606,8 +1618,10 @@
           <t>IMS</t>
         </is>
       </c>
-      <c r="D25" s="3" t="n">
-        <v/>
+      <c r="D25" s="3" t="inlineStr">
+        <is>
+          <t>LSME-IMS-SOP-021</t>
+        </is>
       </c>
       <c r="E25" s="3" t="inlineStr">
         <is>
@@ -1625,11 +1639,11 @@
         </is>
       </c>
       <c r="H25" s="3" t="n">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="I25" s="3" t="inlineStr">
         <is>
-          <t>16-Sep-2025</t>
+          <t>17-Sep-2025</t>
         </is>
       </c>
       <c r="J25" s="3" t="inlineStr">
@@ -1653,8 +1667,10 @@
           <t>IMS</t>
         </is>
       </c>
-      <c r="D26" s="3" t="n">
-        <v/>
+      <c r="D26" s="3" t="inlineStr">
+        <is>
+          <t>LSME-IMS-SOP-018</t>
+        </is>
       </c>
       <c r="E26" s="3" t="inlineStr">
         <is>
@@ -1672,11 +1688,11 @@
         </is>
       </c>
       <c r="H26" s="3" t="n">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="I26" s="3" t="inlineStr">
         <is>
-          <t>16-Sep-2025</t>
+          <t>17-Sep-2025</t>
         </is>
       </c>
       <c r="J26" s="3" t="inlineStr">
@@ -1709,11 +1725,11 @@
         </is>
       </c>
       <c r="H27" s="3" t="n">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="I27" s="3" t="inlineStr">
         <is>
-          <t>16-Sep-2025</t>
+          <t>17-Sep-2025</t>
         </is>
       </c>
       <c r="J27" s="3" t="inlineStr">
